--- a/LOGS/4df1e69c-c8f6-4e62-ae40-cd9fe0fb3151/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/4df1e69c-c8f6-4e62-ae40-cd9fe0fb3151/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="102">
   <si>
     <t>year</t>
   </si>
@@ -63,19 +63,19 @@
     <t>None</t>
   </si>
   <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>header_col_1</t>
+  </si>
+  <si>
+    <t>Finished goods (at cost)</t>
+  </si>
+  <si>
+    <t>Parts and accessories (at cost)</t>
+  </si>
+  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Trade</t>
-  </si>
-  <si>
-    <t>header_col_1</t>
-  </si>
-  <si>
-    <t>Finished goods (at cost)</t>
-  </si>
-  <si>
-    <t>Parts and accessories (at cost)</t>
   </si>
   <si>
     <t>$'000</t>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>84</v>
@@ -1577,7 +1577,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>92</v>
@@ -1600,7 +1600,7 @@
         <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
         <v>92</v>
@@ -1623,7 +1623,7 @@
         <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>92</v>
@@ -1646,7 +1646,7 @@
         <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>92</v>
@@ -1669,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
         <v>92</v>
@@ -1692,7 +1692,7 @@
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>92</v>
@@ -1715,7 +1715,7 @@
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>92</v>
@@ -1738,7 +1738,7 @@
         <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>92</v>
@@ -1761,7 +1761,7 @@
         <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>92</v>
@@ -1784,7 +1784,7 @@
         <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>92</v>
@@ -1807,7 +1807,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>92</v>
@@ -1830,7 +1830,7 @@
         <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
         <v>92</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>57000</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>57000</v>
@@ -2192,7 +2192,7 @@
         <v>41763</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -2209,7 +2209,7 @@
         <v>-127</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -2226,7 +2226,7 @@
         <v>21783</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -2237,13 +2237,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -2254,13 +2254,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>625</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -2271,13 +2271,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>42648</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -2310,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -2318,10 +2318,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>160160</v>
@@ -2338,10 +2335,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>77242</v>
@@ -2358,10 +2352,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>237402</v>
@@ -2378,10 +2369,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>198827</v>
@@ -2398,10 +2386,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>56201</v>
@@ -2418,10 +2403,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>255028</v>
@@ -2463,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -4563,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F106">
         <v>2023</v>
@@ -4583,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F107">
         <v>2023</v>
@@ -4603,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F108">
         <v>2023</v>
@@ -4623,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F109">
         <v>2023</v>
@@ -4643,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F110">
         <v>2023</v>
@@ -4663,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F111">
         <v>2023</v>
@@ -4683,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F112">
         <v>2022</v>
@@ -4703,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F113">
         <v>2023</v>
@@ -4723,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F114">
         <v>2023</v>
@@ -4743,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F115">
         <v>2023</v>
@@ -4763,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F116">
         <v>2022</v>
@@ -4783,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F117">
         <v>2022</v>
@@ -4803,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F118">
         <v>2023</v>
@@ -4823,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F119">
         <v>2022</v>
@@ -4843,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F120">
         <v>2023</v>
@@ -4863,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F121">
         <v>2023</v>
@@ -4883,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F122">
         <v>2023</v>
@@ -4903,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F123">
         <v>2023</v>
@@ -4923,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F124">
         <v>2023</v>
@@ -4943,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F125">
         <v>2023</v>
@@ -4963,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F126">
         <v>2022</v>
@@ -4983,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F127">
         <v>2023</v>
@@ -5003,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F128">
         <v>2023</v>
@@ -5023,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F129">
         <v>2023</v>
@@ -5043,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F130">
         <v>2023</v>
@@ -5063,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <v>2022</v>
@@ -5096,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -5429,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -6349,7 +6331,7 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F47">
         <v>2023</v>
@@ -6369,7 +6351,7 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>2023</v>
@@ -6389,7 +6371,7 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>2022</v>
@@ -6409,7 +6391,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>2023</v>
@@ -6429,7 +6411,7 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>2023</v>
@@ -6449,7 +6431,7 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>2022</v>
@@ -6469,7 +6451,7 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>2022</v>
@@ -6489,7 +6471,7 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F54">
         <v>2023</v>
@@ -6509,7 +6491,7 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F55">
         <v>2023</v>
@@ -6529,7 +6511,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F56">
         <v>2023</v>
@@ -6549,7 +6531,7 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F57">
         <v>2022</v>
@@ -6569,7 +6551,7 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F58">
         <v>2023</v>
@@ -6589,7 +6571,7 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F59">
         <v>2023</v>
@@ -6609,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F60">
         <v>2023</v>
@@ -6629,7 +6611,7 @@
         <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F61">
         <v>2022</v>
@@ -7398,7 +7380,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -7500,7 +7482,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
